--- a/PC_Budget_Results.xlsx
+++ b/PC_Budget_Results.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -444,12 +444,12 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,412 +527,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440</t>
+          <t>LIFE BOOK U9313</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4500</v>
+        <v>4130</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>330400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>330400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>330400</v>
       </c>
       <c r="F2" t="n">
-        <v>67500</v>
+        <v>330400</v>
       </c>
       <c r="G2" t="n">
-        <v>67500</v>
+        <v>330400</v>
       </c>
       <c r="H2" t="n">
-        <v>67500</v>
+        <v>268450</v>
       </c>
       <c r="I2" t="n">
-        <v>112500</v>
+        <v>268450</v>
       </c>
       <c r="J2" t="n">
-        <v>112500</v>
+        <v>268450</v>
       </c>
       <c r="K2" t="n">
-        <v>112500</v>
+        <v>247800</v>
       </c>
       <c r="L2" t="n">
-        <v>112500</v>
+        <v>247800</v>
       </c>
       <c r="M2" t="n">
-        <v>112500</v>
+        <v>247800</v>
       </c>
       <c r="N2" t="n">
-        <v>112500</v>
+        <v>247800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HP Elite SFF 800 G9 PC (4G087AV)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3690</v>
+          <t>TOTAL</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="D3" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="E3" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="F3" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="G3" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="H3" t="n">
-        <v>3690</v>
+        <v>268450</v>
       </c>
       <c r="I3" t="n">
-        <v>3690</v>
+        <v>268450</v>
       </c>
       <c r="J3" t="n">
-        <v>3690</v>
+        <v>268450</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>247800</v>
       </c>
       <c r="L3" t="n">
-        <v>3690</v>
+        <v>247800</v>
       </c>
       <c r="M3" t="n">
-        <v>3690</v>
+        <v>247800</v>
       </c>
       <c r="N3" t="n">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LIFE BOOK U9313</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4130</v>
-      </c>
-      <c r="C4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="D4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="E4" t="n">
         <v>247800</v>
-      </c>
-      <c r="F4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="H4" t="n">
-        <v>268450</v>
-      </c>
-      <c r="I4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="J4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="K4" t="n">
-        <v>289100</v>
-      </c>
-      <c r="L4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="M4" t="n">
-        <v>330400</v>
-      </c>
-      <c r="N4" t="n">
-        <v>330400</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkPad T16</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5800</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>145000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>145000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>145000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>145000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SurfacePro8</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6750</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="M6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ThinkPad L13Gen2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4200</v>
-      </c>
-      <c r="C7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="E7" t="n">
-        <v>54600</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="G7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="H7" t="n">
-        <v>63000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="J7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="K7" t="n">
-        <v>67200</v>
-      </c>
-      <c r="L7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="M7" t="n">
-        <v>75600</v>
-      </c>
-      <c r="N7" t="n">
-        <v>75600</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ThinkPad X13 Gen 4</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4010</v>
-      </c>
-      <c r="C8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="D8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="E8" t="n">
-        <v>240600</v>
-      </c>
-      <c r="F8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="G8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="H8" t="n">
-        <v>220550</v>
-      </c>
-      <c r="I8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="J8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="K8" t="n">
-        <v>260650</v>
-      </c>
-      <c r="L8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="M8" t="n">
-        <v>280700</v>
-      </c>
-      <c r="N8" t="n">
-        <v>280700</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ThinkPad X13 Gen5</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3800</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>76000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>76000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>76000</v>
-      </c>
-      <c r="I9" t="n">
-        <v>190000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>190000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>190000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>190000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>190000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>703890</v>
-      </c>
-      <c r="D10" t="n">
-        <v>703890</v>
-      </c>
-      <c r="E10" t="n">
-        <v>560190</v>
-      </c>
-      <c r="F10" t="n">
-        <v>847390</v>
-      </c>
-      <c r="G10" t="n">
-        <v>847390</v>
-      </c>
-      <c r="H10" t="n">
-        <v>712690</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1077950</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1151390</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,7 +632,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -962,12 +640,12 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1045,57 +723,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HP Elite SFF 800 G9 PC (4G087AV)</t>
+          <t>LIFE BOOK U9313</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3690</v>
+        <v>4130</v>
       </c>
       <c r="C2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="D2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="E2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="F2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="G2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="H2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="I2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="J2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="K2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="L2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="M2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
       <c r="N2" t="n">
-        <v>3690</v>
+        <v>330400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LIFE BOOK U9313</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4130</v>
+          <t>TOTAL</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>330400</v>
@@ -1132,325 +807,6 @@
       </c>
       <c r="N3" t="n">
         <v>330400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SurfacePro8</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6750</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ThinkPad L13Gen2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4200</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="G5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="H5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="K5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="L5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="M5" t="n">
-        <v>75600</v>
-      </c>
-      <c r="N5" t="n">
-        <v>75600</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ThinkPad X13 Gen 4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4010</v>
-      </c>
-      <c r="C6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="E6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="F6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="G6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="H6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="I6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="J6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="K6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="L6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="M6" t="n">
-        <v>280700</v>
-      </c>
-      <c r="N6" t="n">
-        <v>280700</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ThinkPad X13 Gen5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3800</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>76000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>76000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>76000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>190000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>190000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>190000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>190000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>190000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dell Latitude 7440</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4500</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67500</v>
-      </c>
-      <c r="G8" t="n">
-        <v>67500</v>
-      </c>
-      <c r="H8" t="n">
-        <v>67500</v>
-      </c>
-      <c r="I8" t="n">
-        <v>112500</v>
-      </c>
-      <c r="J8" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K8" t="n">
-        <v>112500</v>
-      </c>
-      <c r="L8" t="n">
-        <v>112500</v>
-      </c>
-      <c r="M8" t="n">
-        <v>112500</v>
-      </c>
-      <c r="N8" t="n">
-        <v>112500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkPad T16</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5800</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>145000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>145000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>145000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>145000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>145000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>703890</v>
-      </c>
-      <c r="D10" t="n">
-        <v>703890</v>
-      </c>
-      <c r="E10" t="n">
-        <v>703890</v>
-      </c>
-      <c r="F10" t="n">
-        <v>847390</v>
-      </c>
-      <c r="G10" t="n">
-        <v>847390</v>
-      </c>
-      <c r="H10" t="n">
-        <v>847390</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1151390</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1151390</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,20 +828,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
-    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1563,11 +919,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HP Elite SFF 800 G9 PC (4G087AV)</t>
+          <t>LIFE BOOK U9313</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3690</v>
+        <v>4130</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1585,35 +941,32 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61950</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>61950</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61950</v>
       </c>
       <c r="K2" t="n">
-        <v>3690</v>
+        <v>82600</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LIFE BOOK U9313</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4130</v>
+          <t>TOTAL</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1622,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82600</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1634,157 +987,22 @@
         <v>61950</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61950</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61950</v>
       </c>
       <c r="K3" t="n">
-        <v>41300</v>
+        <v>82600</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ThinkPad L13Gen2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4200</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12600</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8400</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ThinkPad X13 Gen 4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4010</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>60150</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20050</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>143700</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>134700</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>73440</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
     </row>
   </sheetData>
@@ -1847,16 +1065,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703890</v>
+        <v>330400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>703890</v>
+        <v>330400</v>
       </c>
       <c r="E2" t="n">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -1866,16 +1084,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703890</v>
+        <v>330400</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>703890</v>
+        <v>330400</v>
       </c>
       <c r="E3" t="n">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1885,16 +1103,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>703890</v>
+        <v>330400</v>
       </c>
       <c r="C4" t="n">
-        <v>143700</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>560190</v>
+        <v>330400</v>
       </c>
       <c r="E4" t="n">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -1904,16 +1122,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847390</v>
+        <v>330400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>847390</v>
+        <v>330400</v>
       </c>
       <c r="E5" t="n">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1923,16 +1141,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>847390</v>
+        <v>330400</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>847390</v>
+        <v>330400</v>
       </c>
       <c r="E6" t="n">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1942,16 +1160,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847390</v>
+        <v>330400</v>
       </c>
       <c r="C7" t="n">
-        <v>134700</v>
+        <v>61950</v>
       </c>
       <c r="D7" t="n">
-        <v>712690</v>
+        <v>268450</v>
       </c>
       <c r="E7" t="n">
-        <v>173</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1961,16 +1179,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1151390</v>
+        <v>330400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>61950</v>
       </c>
       <c r="D8" t="n">
-        <v>1151390</v>
+        <v>268450</v>
       </c>
       <c r="E8" t="n">
-        <v>271</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1980,16 +1198,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1151390</v>
+        <v>330400</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>61950</v>
       </c>
       <c r="D9" t="n">
-        <v>1151390</v>
+        <v>268450</v>
       </c>
       <c r="E9" t="n">
-        <v>271</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1999,16 +1217,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1151390</v>
+        <v>330400</v>
       </c>
       <c r="C10" t="n">
-        <v>73440</v>
+        <v>82600</v>
       </c>
       <c r="D10" t="n">
-        <v>1077950</v>
+        <v>247800</v>
       </c>
       <c r="E10" t="n">
-        <v>253</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2018,16 +1236,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1151390</v>
+        <v>330400</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="D11" t="n">
-        <v>1151390</v>
+        <v>247800</v>
       </c>
       <c r="E11" t="n">
-        <v>271</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2037,16 +1255,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1151390</v>
+        <v>330400</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="D12" t="n">
-        <v>1151390</v>
+        <v>247800</v>
       </c>
       <c r="E12" t="n">
-        <v>271</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2056,16 +1274,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1151390</v>
+        <v>330400</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="D13" t="n">
-        <v>1151390</v>
+        <v>247800</v>
       </c>
       <c r="E13" t="n">
-        <v>271</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
